--- a/AA_Management/00_GANTT/Ancien/GANTT_V2.xlsx
+++ b/AA_Management/00_GANTT/Ancien/GANTT_V2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\00_GANTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\00_GANTT\Ancien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA8958-1751-462A-9F2E-A581D999655B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198CD9EC-3CDE-48F8-815A-88EA9BAEBA9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{B5F72930-40F3-4E46-BBD8-9CE832AB9E95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{B5F72930-40F3-4E46-BBD8-9CE832AB9E95}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="6" r:id="rId1"/>
@@ -1005,6 +1005,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1022,9 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1374,10 +1374,10 @@
       <c r="F1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="31"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2042,7 +2042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADF6AF9-7A4E-44DD-AE57-99FC9DDD9D66}">
   <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
@@ -2065,15 +2065,15 @@
         <v>93</v>
       </c>
       <c r="F1" s="26"/>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="32"/>
+      <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2084,16 +2084,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="29"/>
-      <c r="G2" s="34">
+      <c r="G2" s="35">
         <v>42946</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="33">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="34">
         <f>WEEKNUM(G2)</f>
         <v>31</v>
       </c>
-      <c r="K2" s="33"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E3" s="2">
@@ -2357,7 +2357,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="31" t="s">
         <v>199</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -2447,7 +2447,7 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="31" t="s">
         <v>209</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -2673,7 +2673,7 @@
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="31" t="s">
         <v>199</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -2724,7 +2724,7 @@
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="31" t="s">
         <v>219</v>
       </c>
       <c r="D35" s="29">
@@ -2845,7 +2845,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2862,8 +2862,8 @@
     <col min="10" max="10" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
     <col min="12" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="3.33203125" customWidth="1"/>
-    <col min="17" max="17" width="3.109375" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" customWidth="1"/>
+    <col min="15" max="17" width="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2878,15 +2878,15 @@
         <v>93</v>
       </c>
       <c r="E1" s="26"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="32"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2899,16 +2899,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="29"/>
-      <c r="F2" s="34">
-        <v>43551</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="33">
+      <c r="F2" s="35">
+        <v>43557</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34">
         <f>WEEKNUM(F2)</f>
-        <v>13</v>
-      </c>
-      <c r="J2" s="33"/>
+        <v>14</v>
+      </c>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -2922,34 +2922,34 @@
       <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="35" t="s">
+      <c r="J4" s="37"/>
+      <c r="K4" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="35" t="s">
+      <c r="N4" s="37"/>
+      <c r="O4" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="36" t="s">
+      <c r="P4" s="36"/>
+      <c r="Q4" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="R4" s="36"/>
+      <c r="R4" s="37"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -3176,6 +3176,9 @@
       </c>
       <c r="N17">
         <v>50</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
@@ -3187,7 +3190,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K18">
         <v>50</v>
@@ -3200,6 +3203,9 @@
       </c>
       <c r="N18">
         <v>50</v>
+      </c>
+      <c r="O18">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -3352,6 +3358,9 @@
       <c r="O31">
         <v>33</v>
       </c>
+      <c r="P31">
+        <v>33</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -3369,6 +3378,9 @@
       <c r="O32">
         <v>0</v>
       </c>
+      <c r="P32">
+        <v>100</v>
+      </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -3379,7 +3391,7 @@
       </c>
       <c r="D35">
         <f>MAX(E35:AA35)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L35">
         <v>20</v>
@@ -3392,6 +3404,12 @@
       </c>
       <c r="O35">
         <v>20</v>
+      </c>
+      <c r="P35">
+        <v>20</v>
+      </c>
+      <c r="Q35">
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
@@ -3401,6 +3419,10 @@
       <c r="B36" t="s">
         <v>251</v>
       </c>
+      <c r="D36">
+        <f t="shared" ref="D36:D37" si="3">MAX(E36:AA36)</f>
+        <v>100</v>
+      </c>
       <c r="L36">
         <v>20</v>
       </c>
@@ -3412,6 +3434,12 @@
       </c>
       <c r="O36">
         <v>20</v>
+      </c>
+      <c r="P36">
+        <v>20</v>
+      </c>
+      <c r="Q36">
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
@@ -3421,6 +3449,10 @@
       <c r="B37" t="s">
         <v>251</v>
       </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
       <c r="L37">
         <v>20</v>
       </c>
@@ -3432,6 +3464,12 @@
       </c>
       <c r="O37">
         <v>20</v>
+      </c>
+      <c r="P37">
+        <v>20</v>
+      </c>
+      <c r="Q37">
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
@@ -3488,7 +3526,7 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:D3 D41:P54 O27:P27 D7:P26 D28:P38">
+  <conditionalFormatting sqref="D2:D3 D41:P54 O27:P27 D7:P26 P35:Q37 D28:P38">
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3563,15 +3601,15 @@
         <v>93</v>
       </c>
       <c r="E1" s="26"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="32"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3581,16 +3619,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="29"/>
-      <c r="F2" s="34">
+      <c r="F2" s="35">
         <v>43531</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="33">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34">
         <f>WEEKNUM(F2)</f>
         <v>10</v>
       </c>
-      <c r="J2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -3599,26 +3637,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="35" t="s">
+      <c r="J4" s="37"/>
+      <c r="K4" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="N4" s="36"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -3859,15 +3897,15 @@
       <c r="E1" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="32"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3877,16 +3915,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="29"/>
-      <c r="F2" s="34">
+      <c r="F2" s="35">
         <v>43531</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="33">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34">
         <f>WEEKNUM(F2)</f>
         <v>10</v>
       </c>
-      <c r="J2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -3895,26 +3933,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="35" t="s">
+      <c r="J4" s="37"/>
+      <c r="K4" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="N4" s="36"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -4293,8 +4331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B25247-C4A1-42FB-B63C-4B9CD415ECAB}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4322,15 +4360,15 @@
       <c r="D1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="32"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4339,16 +4377,16 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="35">
         <v>43531</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="33">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34">
         <f>WEEKNUM(F2)</f>
         <v>10</v>
       </c>
-      <c r="J2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -4357,26 +4395,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="35" t="s">
+      <c r="J4" s="37"/>
+      <c r="K4" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="N4" s="36"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -4998,15 +5036,15 @@
       <c r="D1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="32"/>
+      <c r="J1" s="33"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -5016,16 +5054,16 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="35">
         <v>43550</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="33">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34">
         <f>WEEKNUM(F2)</f>
         <v>13</v>
       </c>
-      <c r="J2" s="33"/>
+      <c r="J2" s="34"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -5036,34 +5074,34 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="35" t="s">
+      <c r="J4" s="37"/>
+      <c r="K4" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="35" t="s">
+      <c r="N4" s="37"/>
+      <c r="O4" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="36" t="s">
+      <c r="P4" s="36"/>
+      <c r="Q4" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="R4" s="36"/>
+      <c r="R4" s="37"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
